--- a/Planificación S2.xlsx
+++ b/Planificación S2.xlsx
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>44970.0</v>
+        <v>44977.0</v>
       </c>
       <c r="D2" s="9"/>
       <c r="J2" s="10"/>
@@ -429,31 +429,31 @@
       <c r="B3" s="11"/>
       <c r="C3" s="12">
         <f>C2</f>
-        <v>44970</v>
+        <v>44977</v>
       </c>
       <c r="D3" s="13">
         <f>C2+1</f>
-        <v>44971</v>
+        <v>44978</v>
       </c>
       <c r="E3" s="13">
         <f>C2+2</f>
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="F3" s="13">
         <f>C2+3</f>
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="G3" s="13">
         <f>C2+4</f>
-        <v>44974</v>
+        <v>44981</v>
       </c>
       <c r="H3" s="13">
         <f>C2+5</f>
-        <v>44975</v>
+        <v>44982</v>
       </c>
       <c r="I3" s="13">
         <f>C2+6</f>
-        <v>44976</v>
+        <v>44983</v>
       </c>
       <c r="J3" s="11"/>
     </row>
